--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="17">
   <si>
     <t>Train</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>Std-VAE</t>
+  </si>
+  <si>
+    <t>GRAPH-ER</t>
+  </si>
+  <si>
+    <t>MMD Degree</t>
+  </si>
+  <si>
+    <t>MMD Clustering Coefficient</t>
+  </si>
+  <si>
+    <t>MMD Orbit count</t>
+  </si>
+  <si>
+    <t>GRAPH-ER*</t>
   </si>
 </sst>
 </file>
@@ -121,10 +136,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -410,12 +425,13 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -425,60 +441,60 @@
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="3" t="s">
         <v>10</v>
       </c>
@@ -571,6 +587,21 @@
       <c r="N8">
         <v>100</v>
       </c>
+      <c r="O8">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P8">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q8">
+        <v>1.26161269630037</v>
+      </c>
+      <c r="R8">
+        <v>0.13120153661820699</v>
+      </c>
+      <c r="S8">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D9">
@@ -606,6 +637,21 @@
       <c r="N9">
         <v>99.5</v>
       </c>
+      <c r="O9">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P9">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q9">
+        <v>1.17299960878596</v>
+      </c>
+      <c r="R9">
+        <v>0.120032091756721</v>
+      </c>
+      <c r="S9">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D10">
@@ -640,6 +686,21 @@
       </c>
       <c r="N10">
         <v>100</v>
+      </c>
+      <c r="O10">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P10">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q10">
+        <v>0.98457669490050403</v>
+      </c>
+      <c r="R10">
+        <v>9.6419731531520905E-2</v>
+      </c>
+      <c r="S10">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1109,60 +1170,60 @@
     </row>
     <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M35" s="4"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4" t="s">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R35" s="4"/>
+      <c r="R35" s="5"/>
       <c r="S35" s="3" t="s">
         <v>10</v>
       </c>
@@ -1225,16 +1286,112 @@
       <c r="D40">
         <v>1</v>
       </c>
+      <c r="E40">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F40">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G40">
+        <v>6.0681821621220999</v>
+      </c>
+      <c r="H40">
+        <v>5.3386489170946502E-2</v>
+      </c>
+      <c r="I40">
+        <v>93</v>
+      </c>
+      <c r="J40">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K40">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L40">
+        <v>5.0272994352552303</v>
+      </c>
+      <c r="M40">
+        <v>3.2906719289949198E-2</v>
+      </c>
+      <c r="N40">
+        <v>100</v>
+      </c>
+      <c r="O40">
+        <v>11.926571049393299</v>
+      </c>
+      <c r="S40">
+        <v>52.5</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>2</v>
       </c>
+      <c r="E41">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F41">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G41">
+        <v>6.2529915216378802</v>
+      </c>
+      <c r="H41">
+        <v>6.1923481080732E-2</v>
+      </c>
+      <c r="I41">
+        <v>95</v>
+      </c>
+      <c r="J41">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K41">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L41">
+        <v>5.0231308532096399</v>
+      </c>
+      <c r="M41">
+        <v>3.6745409774579602E-2</v>
+      </c>
+      <c r="N41">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>3</v>
       </c>
+      <c r="E42">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F42">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G42">
+        <v>6.1675935900815499</v>
+      </c>
+      <c r="H42">
+        <v>5.8227155389912702E-2</v>
+      </c>
+      <c r="I42">
+        <v>93</v>
+      </c>
+      <c r="J42">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K42">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L42">
+        <v>4.4009689109978503</v>
+      </c>
+      <c r="M42">
+        <v>2.5537380338083799E-2</v>
+      </c>
+      <c r="N42">
+        <v>100</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -1250,94 +1407,463 @@
       <c r="D45">
         <v>1</v>
       </c>
+      <c r="E45">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F45">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G45">
+        <v>6.7524698096812896</v>
+      </c>
+      <c r="H45">
+        <v>9.1375827582344193E-2</v>
+      </c>
+      <c r="I45">
+        <v>95.5</v>
+      </c>
+      <c r="J45">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K45">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L45">
+        <v>5.2318416281964097</v>
+      </c>
+      <c r="M45">
+        <v>4.36906763237516E-2</v>
+      </c>
+      <c r="N45">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>2</v>
       </c>
+      <c r="E46">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F46">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G46">
+        <v>6.2916416440582799</v>
+      </c>
+      <c r="H46">
+        <v>4.8012716745989802E-2</v>
+      </c>
+      <c r="I46">
+        <v>93</v>
+      </c>
+      <c r="J46">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K46">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L46">
+        <v>4.8537703967781196</v>
+      </c>
+      <c r="M46">
+        <v>3.1684714503927798E-2</v>
+      </c>
+      <c r="N46">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>3</v>
       </c>
+      <c r="E47">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F47">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G47">
+        <v>6.2558551928272896</v>
+      </c>
+      <c r="H47">
+        <v>7.2416457688483996E-2</v>
+      </c>
+      <c r="I47">
+        <v>95.5</v>
+      </c>
+      <c r="J47">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K47">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L47">
+        <v>4.7972027191781601</v>
+      </c>
+      <c r="M47">
+        <v>3.0902044048779199E-2</v>
+      </c>
+      <c r="N47">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F50">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G50">
+        <v>5.9923803658347996</v>
+      </c>
+      <c r="H50">
+        <v>4.6909820833778801E-2</v>
+      </c>
+      <c r="I50">
+        <v>94</v>
+      </c>
+      <c r="J50">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K50">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L50">
+        <v>5.2264878737947402</v>
+      </c>
+      <c r="M50">
+        <v>3.7113071541572597E-2</v>
+      </c>
+      <c r="N50">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F51">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G51">
+        <v>6.5600873960815296</v>
+      </c>
+      <c r="H51">
+        <v>6.6617053448243299E-2</v>
+      </c>
+      <c r="I51">
+        <v>92.5</v>
+      </c>
+      <c r="J51">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K51">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L51">
+        <v>5.2264878737947402</v>
+      </c>
+      <c r="M51">
+        <v>3.7113071541572597E-2</v>
+      </c>
+      <c r="N51">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F52">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G52">
+        <v>6.5843346468778901</v>
+      </c>
+      <c r="H52">
+        <v>7.9391813133089698E-2</v>
+      </c>
+      <c r="I52">
+        <v>95.5</v>
+      </c>
+      <c r="J52">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K52">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L52">
+        <v>5.0579071530562301</v>
+      </c>
+      <c r="M52">
+        <v>2.8386936786080199E-2</v>
+      </c>
+      <c r="N52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F55">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G55">
+        <v>6.38543414674582</v>
+      </c>
+      <c r="H55">
+        <v>6.7889767831477099E-2</v>
+      </c>
+      <c r="I55">
+        <v>94</v>
+      </c>
+      <c r="J55">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K55">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L55">
+        <v>5.3386086417235203</v>
+      </c>
+      <c r="M55">
+        <v>3.8006607665363498E-2</v>
+      </c>
+      <c r="N55">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F56">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G56">
+        <v>6.0991545336041604</v>
+      </c>
+      <c r="H56">
+        <v>5.98342259723081E-2</v>
+      </c>
+      <c r="I56">
+        <v>93</v>
+      </c>
+      <c r="J56">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K56">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L56">
+        <v>5.1932840732491998</v>
+      </c>
+      <c r="M56">
+        <v>2.9949233609259902E-2</v>
+      </c>
+      <c r="N56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F57">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G57">
+        <v>6.0061107660934798</v>
+      </c>
+      <c r="H57">
+        <v>3.8818501812423599E-2</v>
+      </c>
+      <c r="I57">
+        <v>95.5</v>
+      </c>
+      <c r="J57">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K57">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L57">
+        <v>5.2264878737947402</v>
+      </c>
+      <c r="M57">
+        <v>3.7113071541572597E-2</v>
+      </c>
+      <c r="N57">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F60">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G60">
+        <v>6.2581078414035698</v>
+      </c>
+      <c r="H60">
+        <v>5.7798446500347302E-2</v>
+      </c>
+      <c r="I60">
+        <v>93</v>
+      </c>
+      <c r="J60">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K60">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L60">
+        <v>4.8206820566427098</v>
+      </c>
+      <c r="M60">
+        <v>2.50561662540091E-2</v>
+      </c>
+      <c r="N60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F61">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G61">
+        <v>6.2581078414035698</v>
+      </c>
+      <c r="H61">
+        <v>5.7798446500347302E-2</v>
+      </c>
+      <c r="I61">
+        <v>93</v>
+      </c>
+      <c r="J61">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K61">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L61">
+        <v>5.1555335389735397</v>
+      </c>
+      <c r="M61">
+        <v>3.9295855881161502E-2</v>
+      </c>
+      <c r="N61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>3</v>
+      </c>
+      <c r="E62">
+        <v>3.1058222650788898</v>
+      </c>
+      <c r="F62">
+        <v>3.79928669315132E-3</v>
+      </c>
+      <c r="G62">
+        <v>6.6651709061651401</v>
+      </c>
+      <c r="H62">
+        <v>7.18662673774495E-2</v>
+      </c>
+      <c r="I62">
+        <v>92</v>
+      </c>
+      <c r="J62">
+        <v>1.47590564810263</v>
+      </c>
+      <c r="K62">
+        <v>6.1720310162185401E-3</v>
+      </c>
+      <c r="L62">
+        <v>4.9018292071166201</v>
+      </c>
+      <c r="M62">
+        <v>3.3787631172262897E-2</v>
+      </c>
+      <c r="N62">
+        <v>99.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:N34"/>
     <mergeCell ref="O34:S34"/>
@@ -1347,15 +1873,6 @@
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1364,12 +1881,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2.5828309638025401E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.3766676622262397E-2</v>
+      </c>
+      <c r="J7">
+        <v>3.3436239702947998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>6.8450920125397705E-2</v>
+      </c>
+      <c r="I8">
+        <v>7.9235440189248094E-2</v>
+      </c>
+      <c r="J8">
+        <v>4.9916583874105101E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>6.3038311636568201E-2</v>
+      </c>
+      <c r="I9">
+        <v>8.8321485865017493E-2</v>
+      </c>
+      <c r="J9">
+        <v>5.4777691724017002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1388,12 +2134,221 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2.5828309638025401E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.3766676622262397E-2</v>
+      </c>
+      <c r="J7">
+        <v>3.3436239702947998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>6.8450920125397705E-2</v>
+      </c>
+      <c r="I8">
+        <v>7.9235440189248094E-2</v>
+      </c>
+      <c r="J8">
+        <v>4.9916583874105101E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Degree Generator" sheetId="1" r:id="rId1"/>
     <sheet name="Generic Graph" sheetId="2" r:id="rId2"/>
     <sheet name="Molecular graph" sheetId="3" r:id="rId3"/>
-    <sheet name="Ablation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
   <si>
     <t>Train</t>
   </si>
@@ -79,12 +78,18 @@
   <si>
     <t>GRAPH-ER*</t>
   </si>
+  <si>
+    <t>QM9</t>
+  </si>
+  <si>
+    <t>ZINC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +99,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -102,7 +107,28 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,19 +155,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,25 +451,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="F41" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
@@ -462,9 +508,14 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -473,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -484,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="5" t="s">
@@ -495,681 +546,1254 @@
         <v>7</v>
       </c>
       <c r="R3" s="5"/>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="E4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>3.51471685931668</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>1.09445342782228E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>86.5</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>1.7839318837771401</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>1.0097381353548899E-2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>7.5544240567651202E-2</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>3.23689346225797E-3</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>1.26161269630037</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>0.13120153661820699</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D9">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>3.5061601162026599</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>9.0866571486196701E-3</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>91.5</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>1.5874212462313</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>1.1724115343811899E-2</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>99.5</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>7.5544240567651202E-2</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>3.23689346225797E-3</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>1.17299960878596</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>0.120032091756721</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D10">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>3.6754968230317999</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>7.5524033258997899E-3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>92</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>1.7758699829487501</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>7.0400217969863697E-3</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>7.5544240567651202E-2</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>3.23689346225797E-3</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>0.98457669490050403</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>9.6419731531520905E-2</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>3.32765709333145</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>1.00841702327907E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>92.5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>1.8934864521052199</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>1.7012946702663598E-2</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="O13" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.5724501486654101</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.17899021117445901</v>
+      </c>
+      <c r="S13" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G14">
-        <v>3.4601082691438401</v>
-      </c>
-      <c r="H14">
-        <v>3.4601082691438401</v>
-      </c>
-      <c r="I14">
-        <v>86.5</v>
-      </c>
-      <c r="J14">
+      <c r="G14" s="3">
+        <v>3.5009442752578699</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.12248916859722E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>90</v>
+      </c>
+      <c r="J14" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>1.8465687114464799</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>1.0075530526974999E-2</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D15">
+      <c r="O14" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.6754968759147799</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.196530770170326</v>
+      </c>
+      <c r="S14" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>3.37537433695839</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>8.5967013435364007E-3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>88</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>1.8030992643817401</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>1.01181784838113E-2</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="O15" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.39834697109818</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.17014949259100601</v>
+      </c>
+      <c r="S15" s="3">
+        <v>94</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>3.2534426467255102</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>6.1335122720369501E-3</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>91</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>1.8984643467648401</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>2.1826139383732901E-2</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D19">
+      <c r="O18" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.90654630049943796</v>
+      </c>
+      <c r="R18" s="3">
+        <v>7.6912528810275396E-2</v>
+      </c>
+      <c r="S18" s="3">
+        <v>98</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>3.6854101750638799</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>1.46439898743246E-2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>90</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>1.8127021331516999</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>1.0048773029541099E-2</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D20">
+      <c r="O19" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.90318720731966395</v>
+      </c>
+      <c r="R19" s="3">
+        <v>8.4793674556051996E-2</v>
+      </c>
+      <c r="S19" s="3">
+        <v>93</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>3.5218709509434398</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>7.9350341974271307E-3</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>92</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>1.6754687662149601</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>6.3254474421363602E-3</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="O20" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1.025433488335</v>
+      </c>
+      <c r="R20" s="3">
+        <v>7.3673075850569397E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <v>96.5</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>3.3673391908045098</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>1.16199873551772E-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>89</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>1.97406975839188</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="3">
         <v>1.1822136142759501E-2</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D24">
+      <c r="O23" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1.8756032320140299</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.19162513598594999</v>
+      </c>
+      <c r="S23" s="3">
+        <v>95</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>3.6135709274050298</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>6.9189451994557897E-3</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>89.5</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>1.8435396061370799</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <v>1.27600063185473E-2</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D25">
+      <c r="O24" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P24" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1.2898304879945801</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.108814996457506</v>
+      </c>
+      <c r="S24" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>3.7223209212966002</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>9.4562637429032002E-3</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>86</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>1.77845923346001</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>9.5176935196610302E-3</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="O25" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1.0171859641637899</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.10492906645274</v>
+      </c>
+      <c r="S25" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>3.3099967128359702</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>8.2448559465002607E-3</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>93.5</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>1.7007360872320101</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
         <v>7.4473064301159297E-3</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D29">
+      <c r="O28" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P28" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1.5901648842832601</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0.15333230708766299</v>
+      </c>
+      <c r="S28" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>3.6334854265419998</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>9.0321723885229393E-3</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>93</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>1.9099378477830899</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="3">
         <v>1.0664015760182E-2</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D30">
+      <c r="O29" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P29" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1.58702375827911</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.15084590666098099</v>
+      </c>
+      <c r="S29" s="3">
+        <v>96.5</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>3.35541353066131</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>6.7763510456284497E-3</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>91</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>1.7873075128085301</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>8.56076839827624E-3</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
+      <c r="O30" s="3">
+        <v>7.5544240567651202E-2</v>
+      </c>
+      <c r="P30" s="3">
+        <v>3.23689346225797E-3</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1.66752579700518</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.19084634219997701</v>
+      </c>
+      <c r="S30" s="3">
+        <v>96</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E32" s="7">
+        <f>ROUND(AVERAGE(E8:E30),4)</f>
+        <v>3.1057999999999999</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" ref="F32:S32" si="0">ROUND(AVERAGE(F8:F30),4)</f>
+        <v>3.8E-3</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4908999999999999</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="0"/>
+        <v>90.366699999999994</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4759</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8047</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" si="0"/>
+        <v>99.966700000000003</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="Q32" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3285</v>
+      </c>
+      <c r="R32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1353</v>
+      </c>
+      <c r="S32" s="7">
+        <f t="shared" si="0"/>
+        <v>96.166700000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
@@ -1191,9 +1815,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
@@ -1202,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J35" s="5" t="s">
@@ -1213,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="M35" s="5"/>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O35" s="5" t="s">
@@ -1224,637 +1853,1255 @@
         <v>7</v>
       </c>
       <c r="R35" s="5"/>
-      <c r="S35" s="3" t="s">
+      <c r="S35" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="E36" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J36" t="s">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O36" t="s">
+      <c r="N36" s="3"/>
+      <c r="O36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>6.0681821621220999</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>5.3386489170946502E-2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>93</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>5.0272994352552303</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="3">
         <v>3.2906719289949198E-2</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="3">
         <v>100</v>
       </c>
-      <c r="O40">
-        <v>11.926571049393299</v>
-      </c>
-      <c r="S40">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D41">
+      <c r="O40" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P40" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>2.7362603842698698</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0.28463920597680198</v>
+      </c>
+      <c r="S40" s="3">
+        <v>48.5</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>6.2529915216378802</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>6.1923481080732E-2</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>95</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>5.0231308532096399</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="3">
         <v>3.6745409774579602E-2</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D42">
+      <c r="O41" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>3.0124480276716898</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0.300247015780221</v>
+      </c>
+      <c r="S41" s="3">
+        <v>47</v>
+      </c>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>6.1675935900815499</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>5.8227155389912702E-2</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>93</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>4.4009689109978503</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="3">
         <v>2.5537380338083799E-2</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="O42" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P42" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>2.90806380875935</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0.37808471851577902</v>
+      </c>
+      <c r="S42" s="3">
+        <v>40.5</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>6.7524698096812896</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>9.1375827582344193E-2</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>95.5</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>5.2318416281964097</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="3">
         <v>4.36906763237516E-2</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D46">
+      <c r="O45" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>2.6811147805323499</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.37294854196676602</v>
+      </c>
+      <c r="S45" s="3">
+        <v>41.5</v>
+      </c>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3">
         <v>2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>6.2916416440582799</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>4.8012716745989802E-2</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>93</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>4.8537703967781196</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="3">
         <v>3.1684714503927798E-2</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D47">
+      <c r="O46" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>2.9901750159146601</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0.39345093007478399</v>
+      </c>
+      <c r="S46" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3">
         <v>3</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>6.2558551928272896</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>7.2416457688483996E-2</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>95.5</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>4.7972027191781601</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="3">
         <v>3.0902044048779199E-2</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B48">
+      <c r="O47" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P47" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>2.6170479744951298</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0.43920973565414201</v>
+      </c>
+      <c r="S47" s="3">
+        <v>34</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+    </row>
+    <row r="50" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>5.9923803658347996</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>4.6909820833778801E-2</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>94</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>5.2264878737947402</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="3">
         <v>3.7113071541572597E-2</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="3">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D51">
+      <c r="O50" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P50" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>2.9144824033958998</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0.45128338604097401</v>
+      </c>
+      <c r="S50" s="3">
+        <v>34</v>
+      </c>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+    </row>
+    <row r="51" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
         <v>2</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>6.5600873960815296</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>6.6617053448243299E-2</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>92.5</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="3">
         <v>5.2264878737947402</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="3">
         <v>3.7113071541572597E-2</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="3">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D52">
+      <c r="O51" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P51" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>2.9668094970517198</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0.387203797915182</v>
+      </c>
+      <c r="S51" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+    </row>
+    <row r="52" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3">
         <v>3</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>6.5843346468778901</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>7.9391813133089698E-2</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>95.5</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="3">
         <v>5.0579071530562301</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="3">
         <v>2.8386936786080199E-2</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53">
+      <c r="O52" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P52" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>2.9785941376411702</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0.45656396618054002</v>
+      </c>
+      <c r="S52" s="3">
+        <v>33</v>
+      </c>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+    </row>
+    <row r="55" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>6.38543414674582</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <v>6.7889767831477099E-2</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>94</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="3">
         <v>5.3386086417235203</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="3">
         <v>3.8006607665363498E-2</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="3">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D56">
+      <c r="O55" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P55" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>2.76019730117457</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0.35707050245208599</v>
+      </c>
+      <c r="S55" s="3">
+        <v>41</v>
+      </c>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3">
         <v>2</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>6.0991545336041604</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>5.98342259723081E-2</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>93</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>5.1932840732491998</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="3">
         <v>2.9949233609259902E-2</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D57">
+      <c r="O56" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P56" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>3.1094981102267001</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0.360504334258198</v>
+      </c>
+      <c r="S56" s="3">
+        <v>41</v>
+      </c>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3">
         <v>3</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>6.0061107660934798</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>3.8818501812423599E-2</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>95.5</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="3">
         <v>5.2264878737947402</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="3">
         <v>3.7113071541572597E-2</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="3">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58">
+      <c r="O57" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>3.1094981102267001</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0.360504334258198</v>
+      </c>
+      <c r="S57" s="3">
+        <v>41</v>
+      </c>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+    </row>
+    <row r="58" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+    </row>
+    <row r="60" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>6.2581078414035698</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <v>5.7798446500347302E-2</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <v>93</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="3">
         <v>4.8206820566427098</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="3">
         <v>2.50561662540091E-2</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D61">
+      <c r="O60" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>2.7337807288948799</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0.33255013506815601</v>
+      </c>
+      <c r="S60" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3">
         <v>2</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>6.2581078414035698</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>5.7798446500347302E-2</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>93</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>5.1555335389735397</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="3">
         <v>3.9295855881161502E-2</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D62">
+      <c r="O61" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P61" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>2.9089404358339301</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0.36409442851910101</v>
+      </c>
+      <c r="S61" s="3">
+        <v>41.5</v>
+      </c>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3">
         <v>3</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>3.1058222650788898</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>3.79928669315132E-3</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>6.6651709061651401</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>7.18662673774495E-2</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>92</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>1.47590564810263</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>6.1720310162185401E-3</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="3">
         <v>4.9018292071166201</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="3">
         <v>3.3787631172262897E-2</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="3">
         <v>99.5</v>
+      </c>
+      <c r="O62" s="3">
+        <v>7.3086307158391706E-2</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1.2302551087723899E-3</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>2.4009185647196198</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0.28908712126098002</v>
+      </c>
+      <c r="S62" s="3">
+        <v>46.5</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+    </row>
+    <row r="64" spans="1:21" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E64" s="8">
+        <f>ROUND(AVERAGE(E40:E62),4)</f>
+        <v>3.1057999999999999</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" ref="F64:S64" si="1">ROUND(AVERAGE(F40:F62),4)</f>
+        <v>3.8E-3</v>
+      </c>
+      <c r="G64" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3064999999999998</v>
+      </c>
+      <c r="H64" s="8">
+        <f t="shared" si="1"/>
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="I64" s="8">
+        <f t="shared" si="1"/>
+        <v>93.833299999999994</v>
+      </c>
+      <c r="J64" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4759</v>
+      </c>
+      <c r="K64" s="8">
+        <f t="shared" si="1"/>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="1"/>
+        <v>5.0320999999999998</v>
+      </c>
+      <c r="M64" s="8">
+        <f t="shared" si="1"/>
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="N64" s="8">
+        <f t="shared" si="1"/>
+        <v>99.833299999999994</v>
+      </c>
+      <c r="O64" s="8">
+        <f t="shared" si="1"/>
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="P64" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Q64" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8552</v>
+      </c>
+      <c r="R64" s="8">
+        <f t="shared" si="1"/>
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="S64" s="8">
+        <f t="shared" si="1"/>
+        <v>40.866700000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="E2:I2"/>
@@ -1864,15 +3111,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1881,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,13 +3138,16 @@
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1922,426 +3163,1931 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="E3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>2.5828309638025401E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>3.3766676622262397E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>3.3436239702947998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>6.8450920125397705E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>7.9235440189248094E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>4.9916583874105101E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>6.3038311636568201E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>8.8321485865017493E-2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>5.4777691724017002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>4.3019391939208097E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.104088463571296</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.98236837614196E-2</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>5.27311595856121E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.101071521790186</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4.79450016366742E-2</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>5.1183892302455902E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7.1003748070057202E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.7652002343549098E-2</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>6.1313203231063901E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.28594925029504498</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6.4360105448951904E-2</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>6.8744992885612005E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.25172362976527901</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5.7568676357934299E-2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>6.1880253287331002E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.27435805652051398</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6.9956287858771102E-2</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>6.1880253287331002E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.27435805652051398</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6.9956287858771102E-2</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>5.8516012894595099E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>9.9876670609783003E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6.5503272866814705E-2</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>7.1760966607817805E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>8.7494288250816205E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6.7880466407080703E-2</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D28">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>5.52852791924138E-2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>6.6182892661077297E-2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>6.0303534264695799E-2</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D29">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>5.2814619798606299E-2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>6.3108578142521604E-2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>4.5666778993653498E-2</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
         <v>3</v>
       </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>6.3396634837587798E-2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>8.3268607874626699E-2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>5.2051589578434102E-2</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <f>ROUND(AVERAGE(H7:H29),3)</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I31" s="3">
+        <f>ROUND(AVERAGE(I7:I29),3)</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J31" s="3">
+        <f>ROUND(AVERAGE(J7:J29),3)</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>4.4393864366611302E-2</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.323746166312957</v>
+      </c>
+      <c r="J38" s="3">
+        <v>6.5387913149555596E-2</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>4.7800110709518201E-2</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.34138840108401902</v>
+      </c>
+      <c r="J39" s="3">
+        <v>9.3067748987436E-2</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>4.6684442498419097E-2</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.10633162615233099</v>
+      </c>
+      <c r="J40" s="3">
+        <v>4.5021278154357497E-2</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>4.5376152777790897E-2</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.103209402654345</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5.0046351727349697E-2</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>6.3039427045375102E-2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.107045596604117</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6.4796407344723098E-2</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>4.8433684392507698E-2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8.3857262669571997E-2</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5.2467793621945903E-2</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>5.5991217027700303E-2</v>
+      </c>
+      <c r="I48" s="3">
+        <v>8.9161149928672301E-2</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7.1811658051943103E-2</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
+        <v>5.87588576549029E-2</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4.2138726191389003E-2</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6.1293279475157003E-2</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3">
+        <v>3</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3">
+        <v>5.7349439642071197E-2</v>
+      </c>
+      <c r="I50" s="3">
+        <v>8.1535277829596797E-2</v>
+      </c>
+      <c r="J50" s="3">
+        <v>5.8530050284295497E-2</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <v>4.6483103252116603E-2</v>
+      </c>
+      <c r="I53" s="3">
+        <v>9.8970472152112104E-2</v>
+      </c>
+      <c r="J53" s="3">
+        <v>4.3828036635969098E-2</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
+        <v>6.2694694236781603E-2</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.12640167042414499</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6.25592179649372E-2</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3">
+        <v>3</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
+        <v>5.1749268417333502E-2</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.119037825406243</v>
+      </c>
+      <c r="J55" s="3">
+        <v>4.5928599360450101E-2</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3">
+        <v>4.9149307261499901E-2</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.42470247488184998</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0.24574316840388999</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3">
+        <v>5.1330349364613302E-2</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.47961626634495302</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.29356517903444601</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3">
+        <v>5.1154874212204701E-2</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0.55556646872225901</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.29471637730282102</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3">
+        <f>ROUND(AVERAGE(H38:H60),3)</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I62" s="3">
+        <f>ROUND(AVERAGE(I38:I60),3)</f>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J62" s="3">
+        <f>ROUND(AVERAGE(J38:J60),3)</f>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="E3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>2.5828309638025401E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>3.3766676622262397E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>3.3436239702947998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>6.8450920125397705E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>7.9235440189248094E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>4.9916583874105101E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>6.3038311636568201E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8.8321485865017493E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5.4777691724017002E-2</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>4.3019391939208097E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.104088463571296</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.98236837614196E-2</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>5.27311595856121E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.101071521790186</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4.79450016366742E-2</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>5.1183892302455902E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7.1003748070057202E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.7652002343549098E-2</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>6.1313203231063901E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.28594925029504498</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6.4360105448951904E-2</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>6.8744992885612005E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.25172362976527901</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5.7568676357934299E-2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>6.1880253287331002E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.27435805652051398</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6.9956287858771102E-2</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>6.1880253287331002E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.27435805652051398</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6.9956287858771102E-2</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>5.8516012894595099E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>9.9876670609783003E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6.5503272866814705E-2</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>7.1760966607817805E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>8.7494288250816205E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6.7880466407080703E-2</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D28">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>5.52852791924138E-2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>6.6182892661077297E-2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>6.0303534264695799E-2</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D29">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
         <v>3</v>
       </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -160,17 +160,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView topLeftCell="F41" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,27 +487,27 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
@@ -516,37 +516,37 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="6" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="3"/>
@@ -682,31 +682,31 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F8" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G8" s="3">
-        <v>3.51471685931668</v>
+        <v>3.2359698232414602</v>
       </c>
       <c r="H8" s="3">
-        <v>1.09445342782228E-2</v>
+        <v>8.3144060502213703E-3</v>
       </c>
       <c r="I8" s="3">
-        <v>86.5</v>
+        <v>87.5</v>
       </c>
       <c r="J8" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K8" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L8" s="3">
-        <v>1.7839318837771401</v>
+        <v>1.2523235331184599</v>
       </c>
       <c r="M8" s="3">
-        <v>1.0097381353548899E-2</v>
+        <v>9.0067544130747398E-3</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -737,34 +737,34 @@
         <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F9" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G9" s="3">
-        <v>3.5061601162026599</v>
+        <v>3.1571391508709601</v>
       </c>
       <c r="H9" s="3">
-        <v>9.0866571486196701E-3</v>
+        <v>1.2362506493490201E-2</v>
       </c>
       <c r="I9" s="3">
-        <v>91.5</v>
+        <v>89.5</v>
       </c>
       <c r="J9" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K9" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L9" s="3">
-        <v>1.5874212462313</v>
+        <v>1.2837621428605599</v>
       </c>
       <c r="M9" s="3">
-        <v>1.1724115343811899E-2</v>
+        <v>8.2976451082910005E-3</v>
       </c>
       <c r="N9" s="3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>7.5544240567651202E-2</v>
@@ -792,31 +792,31 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F10" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G10" s="3">
-        <v>3.6754968230317999</v>
+        <v>3.0056639688360698</v>
       </c>
       <c r="H10" s="3">
-        <v>7.5524033258997899E-3</v>
+        <v>1.1487076516130099E-2</v>
       </c>
       <c r="I10" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K10" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L10" s="3">
-        <v>1.7758699829487501</v>
+        <v>1.2204496609132001</v>
       </c>
       <c r="M10" s="3">
-        <v>7.0400217969863697E-3</v>
+        <v>9.0215782827973694E-3</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -897,31 +897,31 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F13" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G13" s="3">
-        <v>3.32765709333145</v>
+        <v>3.3024285506571101</v>
       </c>
       <c r="H13" s="3">
-        <v>1.00841702327907E-2</v>
+        <v>1.46263062978901E-2</v>
       </c>
       <c r="I13" s="3">
-        <v>92.5</v>
+        <v>90.5</v>
       </c>
       <c r="J13" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K13" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L13" s="3">
-        <v>1.8934864521052199</v>
+        <v>1.2408617742080199</v>
       </c>
       <c r="M13" s="3">
-        <v>1.7012946702663598E-2</v>
+        <v>1.39269947816391E-2</v>
       </c>
       <c r="N13" s="3">
         <v>100</v>
@@ -952,34 +952,34 @@
         <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F14" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G14" s="3">
-        <v>3.5009442752578699</v>
+        <v>2.89571936258417</v>
       </c>
       <c r="H14" s="3">
-        <v>1.12248916859722E-2</v>
+        <v>9.5491274868193497E-3</v>
       </c>
       <c r="I14" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J14" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K14" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L14" s="3">
-        <v>1.8465687114464799</v>
+        <v>1.2060907286941001</v>
       </c>
       <c r="M14" s="3">
-        <v>1.0075530526974999E-2</v>
+        <v>9.1369171611588307E-3</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="O14" s="3">
         <v>7.5544240567651202E-2</v>
@@ -1007,31 +1007,31 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F15" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G15" s="3">
-        <v>3.37537433695839</v>
+        <v>3.1901076183654302</v>
       </c>
       <c r="H15" s="3">
-        <v>8.5967013435364007E-3</v>
+        <v>6.9312007478334802E-3</v>
       </c>
       <c r="I15" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J15" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K15" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L15" s="3">
-        <v>1.8030992643817401</v>
+        <v>1.3177235559460201</v>
       </c>
       <c r="M15" s="3">
-        <v>1.01181784838113E-2</v>
+        <v>1.1240374412435999E-2</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1112,31 +1112,31 @@
         <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F18" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>3.2534426467255102</v>
+        <v>2.85673796426458</v>
       </c>
       <c r="H18" s="3">
-        <v>6.1335122720369501E-3</v>
+        <v>1.19642646643505E-2</v>
       </c>
       <c r="I18" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K18" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L18" s="3">
-        <v>1.8984643467648401</v>
+        <v>1.31974817428411</v>
       </c>
       <c r="M18" s="3">
-        <v>2.1826139383732901E-2</v>
+        <v>1.418797734488E-2</v>
       </c>
       <c r="N18" s="3">
         <v>100</v>
@@ -1167,31 +1167,31 @@
         <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F19" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G19" s="3">
-        <v>3.6854101750638799</v>
+        <v>3.21024046653904</v>
       </c>
       <c r="H19" s="3">
-        <v>1.46439898743246E-2</v>
+        <v>1.4433392307691501E-2</v>
       </c>
       <c r="I19" s="3">
-        <v>90</v>
+        <v>83.5</v>
       </c>
       <c r="J19" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K19" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L19" s="3">
-        <v>1.8127021331516999</v>
+        <v>1.1037945556645199</v>
       </c>
       <c r="M19" s="3">
-        <v>1.0048773029541099E-2</v>
+        <v>8.7337367653164098E-3</v>
       </c>
       <c r="N19" s="3">
         <v>100</v>
@@ -1222,31 +1222,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F20" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G20" s="3">
-        <v>3.5218709509434398</v>
+        <v>2.9633715197567301</v>
       </c>
       <c r="H20" s="3">
-        <v>7.9350341974271307E-3</v>
+        <v>8.8042327526225393E-3</v>
       </c>
       <c r="I20" s="3">
-        <v>92</v>
+        <v>90.5</v>
       </c>
       <c r="J20" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K20" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L20" s="3">
-        <v>1.6754687662149601</v>
+        <v>1.3681059991675399</v>
       </c>
       <c r="M20" s="3">
-        <v>6.3254474421363602E-3</v>
+        <v>1.1049312092054699E-2</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1327,31 +1327,31 @@
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F23" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G23" s="3">
-        <v>3.3673391908045098</v>
+        <v>3.0862549823127901</v>
       </c>
       <c r="H23" s="3">
-        <v>1.16199873551772E-2</v>
+        <v>1.0794784643879099E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J23" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K23" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L23" s="3">
-        <v>1.97406975839188</v>
+        <v>1.2720179516483301</v>
       </c>
       <c r="M23" s="3">
-        <v>1.1822136142759501E-2</v>
+        <v>8.4462370941717994E-3</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
@@ -1382,31 +1382,31 @@
         <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F24" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G24" s="3">
-        <v>3.6135709274050298</v>
+        <v>2.9574600272754901</v>
       </c>
       <c r="H24" s="3">
-        <v>6.9189451994557897E-3</v>
+        <v>1.27142513428712E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>89.5</v>
+        <v>89</v>
       </c>
       <c r="J24" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K24" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L24" s="3">
-        <v>1.8435396061370799</v>
+        <v>1.1515595863333401</v>
       </c>
       <c r="M24" s="3">
-        <v>1.27600063185473E-2</v>
+        <v>9.0969629110091398E-3</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1437,31 +1437,31 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F25" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G25" s="3">
-        <v>3.7223209212966002</v>
+        <v>2.9366895295402502</v>
       </c>
       <c r="H25" s="3">
-        <v>9.4562637429032002E-3</v>
+        <v>1.35086448940009E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>86</v>
+        <v>90.5</v>
       </c>
       <c r="J25" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K25" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L25" s="3">
-        <v>1.77845923346001</v>
+        <v>1.3304472400946501</v>
       </c>
       <c r="M25" s="3">
-        <v>9.5176935196610302E-3</v>
+        <v>1.32747981128713E-2</v>
       </c>
       <c r="N25" s="3">
         <v>100</v>
@@ -1542,31 +1542,31 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F28" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G28" s="3">
-        <v>3.3099967128359702</v>
+        <v>3.1549065810366299</v>
       </c>
       <c r="H28" s="3">
-        <v>8.2448559465002607E-3</v>
+        <v>1.28661868377117E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>93.5</v>
+        <v>91.5</v>
       </c>
       <c r="J28" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K28" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L28" s="3">
-        <v>1.7007360872320101</v>
+        <v>1.25118057219055</v>
       </c>
       <c r="M28" s="3">
-        <v>7.4473064301159297E-3</v>
+        <v>7.9658465027902994E-3</v>
       </c>
       <c r="N28" s="3">
         <v>100</v>
@@ -1597,31 +1597,31 @@
         <v>2</v>
       </c>
       <c r="E29" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F29" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G29" s="3">
-        <v>3.6334854265419998</v>
+        <v>3.22931628596689</v>
       </c>
       <c r="H29" s="3">
-        <v>9.0321723885229393E-3</v>
+        <v>1.4551282263709201E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>93</v>
+        <v>85.5</v>
       </c>
       <c r="J29" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K29" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L29" s="3">
-        <v>1.9099378477830899</v>
+        <v>1.19348523911985</v>
       </c>
       <c r="M29" s="3">
-        <v>1.0664015760182E-2</v>
+        <v>9.85720164363201E-3</v>
       </c>
       <c r="N29" s="3">
         <v>100</v>
@@ -1652,31 +1652,31 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>3.1058222650788898</v>
+        <v>3.40194578931776</v>
       </c>
       <c r="F30" s="3">
-        <v>3.79928669315132E-3</v>
+        <v>7.2896259694348303E-3</v>
       </c>
       <c r="G30" s="3">
-        <v>3.35541353066131</v>
+        <v>2.86245979061699</v>
       </c>
       <c r="H30" s="3">
-        <v>6.7763510456284497E-3</v>
+        <v>1.02236757077631E-2</v>
       </c>
       <c r="I30" s="3">
         <v>91</v>
       </c>
       <c r="J30" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K30" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L30" s="3">
-        <v>1.7873075128085301</v>
+        <v>1.1342234894505201</v>
       </c>
       <c r="M30" s="3">
-        <v>8.56076839827624E-3</v>
+        <v>9.8823899956743608E-3</v>
       </c>
       <c r="N30" s="3">
         <v>100</v>
@@ -1722,64 +1722,64 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
-    <row r="32" spans="1:21" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="E32" s="7">
+    <row r="32" spans="1:21" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E32" s="5">
         <f>ROUND(AVERAGE(E8:E30),4)</f>
-        <v>3.1057999999999999</v>
-      </c>
-      <c r="F32" s="7">
+        <v>3.4018999999999999</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" ref="F32:S32" si="0">ROUND(AVERAGE(F8:F30),4)</f>
-        <v>3.8E-3</v>
-      </c>
-      <c r="G32" s="7">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="0"/>
-        <v>3.4908999999999999</v>
-      </c>
-      <c r="H32" s="7">
+        <v>3.0695999999999999</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="0"/>
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="I32" s="7">
+        <v>1.15E-2</v>
+      </c>
+      <c r="I32" s="5">
         <f t="shared" si="0"/>
-        <v>90.366699999999994</v>
-      </c>
-      <c r="J32" s="7">
+        <v>89.8</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="0"/>
-        <v>1.4759</v>
-      </c>
-      <c r="K32" s="7">
+        <v>1.4166000000000001</v>
+      </c>
+      <c r="K32" s="5">
         <f t="shared" si="0"/>
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="L32" s="7">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="L32" s="5">
         <f t="shared" si="0"/>
-        <v>1.8047</v>
-      </c>
-      <c r="M32" s="7">
+        <v>1.2431000000000001</v>
+      </c>
+      <c r="M32" s="5">
         <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N32" s="7">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="N32" s="5">
         <f t="shared" si="0"/>
         <v>99.966700000000003</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="5">
         <f t="shared" si="0"/>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="5">
         <f t="shared" si="0"/>
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="5">
         <f t="shared" si="0"/>
         <v>1.3285</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="5">
         <f t="shared" si="0"/>
         <v>0.1353</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="5">
         <f t="shared" si="0"/>
         <v>96.166700000000006</v>
       </c>
@@ -1794,27 +1794,27 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4" t="s">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
     </row>
@@ -1823,37 +1823,37 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6" t="s">
+      <c r="H35" s="8"/>
+      <c r="I35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5" t="s">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6" t="s">
+      <c r="M35" s="8"/>
+      <c r="N35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5" t="s">
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="6" t="s">
+      <c r="R35" s="8"/>
+      <c r="S35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="T35" s="3"/>
@@ -1995,25 +1995,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G40" s="3">
-        <v>6.0681821621220999</v>
+        <v>6.2853113501962499</v>
       </c>
       <c r="H40" s="3">
-        <v>5.3386489170946502E-2</v>
+        <v>9.2605546071920397E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>93</v>
+        <v>94.5</v>
       </c>
       <c r="J40" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K40" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L40" s="3">
-        <v>5.0272994352552303</v>
+        <v>4.70721025165391</v>
       </c>
       <c r="M40" s="3">
-        <v>3.2906719289949198E-2</v>
+        <v>4.3972860468061502E-2</v>
       </c>
       <c r="N40" s="3">
         <v>100</v>
@@ -2050,25 +2050,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G41" s="3">
-        <v>6.2529915216378802</v>
+        <v>6.7814385543159403</v>
       </c>
       <c r="H41" s="3">
-        <v>6.1923481080732E-2</v>
+        <v>9.7593263771822397E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="J41" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K41" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L41" s="3">
-        <v>5.0231308532096399</v>
+        <v>4.7462313713687401</v>
       </c>
       <c r="M41" s="3">
-        <v>3.6745409774579602E-2</v>
+        <v>4.4804460805016398E-2</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2105,25 +2105,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G42" s="3">
-        <v>6.1675935900815499</v>
+        <v>6.0460682699290302</v>
       </c>
       <c r="H42" s="3">
-        <v>5.8227155389912702E-2</v>
+        <v>7.0883440132795794E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J42" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K42" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L42" s="3">
-        <v>4.4009689109978503</v>
+        <v>4.7108010210311004</v>
       </c>
       <c r="M42" s="3">
-        <v>2.5537380338083799E-2</v>
+        <v>4.1517585271604901E-2</v>
       </c>
       <c r="N42" s="3">
         <v>100</v>
@@ -2210,25 +2210,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G45" s="3">
-        <v>6.7524698096812896</v>
+        <v>6.2703858276400704</v>
       </c>
       <c r="H45" s="3">
-        <v>9.1375827582344193E-2</v>
+        <v>8.9870416222124605E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
       <c r="J45" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K45" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L45" s="3">
-        <v>5.2318416281964097</v>
+        <v>4.79485435241111</v>
       </c>
       <c r="M45" s="3">
-        <v>4.36906763237516E-2</v>
+        <v>3.9533822808050602E-2</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2265,25 +2265,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G46" s="3">
-        <v>6.2916416440582799</v>
+        <v>6.1782950940318404</v>
       </c>
       <c r="H46" s="3">
-        <v>4.8012716745989802E-2</v>
+        <v>7.2823636099368302E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J46" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K46" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L46" s="3">
-        <v>4.8537703967781196</v>
+        <v>4.7697712674011701</v>
       </c>
       <c r="M46" s="3">
-        <v>3.1684714503927798E-2</v>
+        <v>4.6701217585544103E-2</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -2320,25 +2320,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G47" s="3">
-        <v>6.2558551928272896</v>
+        <v>7.16980359055544</v>
       </c>
       <c r="H47" s="3">
-        <v>7.2416457688483996E-2</v>
+        <v>0.13441595051437699</v>
       </c>
       <c r="I47" s="3">
         <v>95.5</v>
       </c>
       <c r="J47" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K47" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L47" s="3">
-        <v>4.7972027191781601</v>
+        <v>4.9677676918173601</v>
       </c>
       <c r="M47" s="3">
-        <v>3.0902044048779199E-2</v>
+        <v>4.5847764847502602E-2</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -2425,28 +2425,28 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G50" s="3">
-        <v>5.9923803658347996</v>
+        <v>6.6543613524609198</v>
       </c>
       <c r="H50" s="3">
-        <v>4.6909820833778801E-2</v>
+        <v>9.0148396396648206E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="J50" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K50" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L50" s="3">
-        <v>5.2264878737947402</v>
+        <v>4.5475901274061696</v>
       </c>
       <c r="M50" s="3">
-        <v>3.7113071541572597E-2</v>
+        <v>3.6762237824094303E-2</v>
       </c>
       <c r="N50" s="3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="O50" s="3">
         <v>7.3086307158391706E-2</v>
@@ -2480,28 +2480,28 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G51" s="3">
-        <v>6.5600873960815296</v>
+        <v>6.5158878230998498</v>
       </c>
       <c r="H51" s="3">
-        <v>6.6617053448243299E-2</v>
+        <v>8.6604872258056104E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>92.5</v>
+        <v>95.5</v>
       </c>
       <c r="J51" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K51" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L51" s="3">
-        <v>5.2264878737947402</v>
+        <v>5.1520632113420799</v>
       </c>
       <c r="M51" s="3">
-        <v>3.7113071541572597E-2</v>
+        <v>6.3569315738086496E-2</v>
       </c>
       <c r="N51" s="3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="O51" s="3">
         <v>7.3086307158391706E-2</v>
@@ -2535,25 +2535,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G52" s="3">
-        <v>6.5843346468778901</v>
+        <v>6.7391161232024901</v>
       </c>
       <c r="H52" s="3">
-        <v>7.9391813133089698E-2</v>
+        <v>0.10250739101693</v>
       </c>
       <c r="I52" s="3">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="J52" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K52" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L52" s="3">
-        <v>5.0579071530562301</v>
+        <v>4.9260964014227504</v>
       </c>
       <c r="M52" s="3">
-        <v>2.8386936786080199E-2</v>
+        <v>5.0492374834778302E-2</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -2640,28 +2640,28 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G55" s="3">
-        <v>6.38543414674582</v>
+        <v>6.5066253445369604</v>
       </c>
       <c r="H55" s="3">
-        <v>6.7889767831477099E-2</v>
+        <v>8.2748962655319697E-2</v>
       </c>
       <c r="I55" s="3">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="J55" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K55" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L55" s="3">
-        <v>5.3386086417235203</v>
+        <v>4.81914254461089</v>
       </c>
       <c r="M55" s="3">
-        <v>3.8006607665363498E-2</v>
+        <v>4.01439978892279E-2</v>
       </c>
       <c r="N55" s="3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="O55" s="3">
         <v>7.3086307158391706E-2</v>
@@ -2695,25 +2695,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G56" s="3">
-        <v>6.0991545336041604</v>
+        <v>6.3602097580228003</v>
       </c>
       <c r="H56" s="3">
-        <v>5.98342259723081E-2</v>
+        <v>9.63880149748019E-2</v>
       </c>
       <c r="I56" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J56" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K56" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L56" s="3">
-        <v>5.1932840732491998</v>
+        <v>4.9557211187472499</v>
       </c>
       <c r="M56" s="3">
-        <v>2.9949233609259902E-2</v>
+        <v>4.2009505666507699E-2</v>
       </c>
       <c r="N56" s="3">
         <v>100</v>
@@ -2750,28 +2750,28 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G57" s="3">
-        <v>6.0061107660934798</v>
+        <v>6.1746314861254001</v>
       </c>
       <c r="H57" s="3">
-        <v>3.8818501812423599E-2</v>
+        <v>7.5476616278779204E-2</v>
       </c>
       <c r="I57" s="3">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="J57" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K57" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L57" s="3">
-        <v>5.2264878737947402</v>
+        <v>4.55189649637322</v>
       </c>
       <c r="M57" s="3">
-        <v>3.7113071541572597E-2</v>
+        <v>4.0564177703657299E-2</v>
       </c>
       <c r="N57" s="3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>7.3086307158391706E-2</v>
@@ -2855,25 +2855,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G60" s="3">
-        <v>6.2581078414035698</v>
+        <v>6.4253110113241698</v>
       </c>
       <c r="H60" s="3">
-        <v>5.7798446500347302E-2</v>
+        <v>7.8138124158365602E-2</v>
       </c>
       <c r="I60" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J60" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K60" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L60" s="3">
-        <v>4.8206820566427098</v>
+        <v>5.0491829060139102</v>
       </c>
       <c r="M60" s="3">
-        <v>2.50561662540091E-2</v>
+        <v>5.1678762420598899E-2</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -2910,25 +2910,25 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G61" s="3">
-        <v>6.2581078414035698</v>
+        <v>6.0327151667234702</v>
       </c>
       <c r="H61" s="3">
-        <v>5.7798446500347302E-2</v>
+        <v>7.2619733204965606E-2</v>
       </c>
       <c r="I61" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J61" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K61" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L61" s="3">
-        <v>5.1555335389735397</v>
+        <v>4.6863734893950104</v>
       </c>
       <c r="M61" s="3">
-        <v>3.9295855881161502E-2</v>
+        <v>4.8762134499106699E-2</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -2965,28 +2965,28 @@
         <v>3.79928669315132E-3</v>
       </c>
       <c r="G62" s="3">
-        <v>6.6651709061651401</v>
+        <v>6.0231879422302503</v>
       </c>
       <c r="H62" s="3">
-        <v>7.18662673774495E-2</v>
+        <v>7.40241643597912E-2</v>
       </c>
       <c r="I62" s="3">
-        <v>92</v>
+        <v>96.5</v>
       </c>
       <c r="J62" s="3">
-        <v>1.47590564810263</v>
+        <v>1.4166262958137601</v>
       </c>
       <c r="K62" s="3">
-        <v>6.1720310162185401E-3</v>
+        <v>9.1037114961434098E-3</v>
       </c>
       <c r="L62" s="3">
-        <v>4.9018292071166201</v>
+        <v>5.1848821699346797</v>
       </c>
       <c r="M62" s="3">
-        <v>3.3787631172262897E-2</v>
+        <v>4.8732085409671701E-2</v>
       </c>
       <c r="N62" s="3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>7.3086307158391706E-2</v>
@@ -3029,70 +3029,79 @@
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
     </row>
-    <row r="64" spans="1:21" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E64" s="8">
+    <row r="64" spans="1:21" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E64" s="6">
         <f>ROUND(AVERAGE(E40:E62),4)</f>
         <v>3.1057999999999999</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="6">
         <f t="shared" ref="F64:S64" si="1">ROUND(AVERAGE(F40:F62),4)</f>
         <v>3.8E-3</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="6">
         <f t="shared" si="1"/>
-        <v>6.3064999999999998</v>
-      </c>
-      <c r="H64" s="8">
+        <v>6.4108999999999998</v>
+      </c>
+      <c r="H64" s="6">
         <f t="shared" si="1"/>
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="I64" s="8">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="I64" s="6">
         <f t="shared" si="1"/>
-        <v>93.833299999999994</v>
-      </c>
-      <c r="J64" s="8">
+        <v>95.666700000000006</v>
+      </c>
+      <c r="J64" s="6">
         <f t="shared" si="1"/>
-        <v>1.4759</v>
-      </c>
-      <c r="K64" s="8">
+        <v>1.4166000000000001</v>
+      </c>
+      <c r="K64" s="6">
         <f t="shared" si="1"/>
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="L64" s="8">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="L64" s="6">
         <f t="shared" si="1"/>
-        <v>5.0320999999999998</v>
-      </c>
-      <c r="M64" s="8">
+        <v>4.8380000000000001</v>
+      </c>
+      <c r="M64" s="6">
         <f t="shared" si="1"/>
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="N64" s="8">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="N64" s="6">
         <f t="shared" si="1"/>
-        <v>99.833299999999994</v>
-      </c>
-      <c r="O64" s="8">
+        <v>100</v>
+      </c>
+      <c r="O64" s="6">
         <f t="shared" si="1"/>
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="P64" s="8">
+      <c r="P64" s="6">
         <f t="shared" si="1"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="6">
         <f t="shared" si="1"/>
         <v>2.8552</v>
       </c>
-      <c r="R64" s="8">
+      <c r="R64" s="6">
         <f t="shared" si="1"/>
         <v>0.36849999999999999</v>
       </c>
-      <c r="S64" s="8">
+      <c r="S64" s="6">
         <f t="shared" si="1"/>
         <v>40.866700000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="J34:N34"/>
     <mergeCell ref="O34:S34"/>
@@ -3102,15 +3111,6 @@
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3121,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
@@ -3148,21 +3148,21 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -3808,21 +3808,21 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -4500,19 +4500,19 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="Degree Generator" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,27 +487,27 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
@@ -516,36 +516,36 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="8"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1794,27 +1794,27 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7" t="s">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
     </row>
@@ -1823,36 +1823,36 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8" t="s">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M35" s="8"/>
+      <c r="M35" s="7"/>
       <c r="N35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="O35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8" t="s">
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R35" s="8"/>
+      <c r="R35" s="7"/>
       <c r="S35" s="4" t="s">
         <v>10</v>
       </c>
@@ -2019,10 +2019,10 @@
         <v>100</v>
       </c>
       <c r="O40" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P40" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q40" s="3">
         <v>2.7362603842698698</v>
@@ -2074,10 +2074,10 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P41" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q41" s="3">
         <v>3.0124480276716898</v>
@@ -2129,10 +2129,10 @@
         <v>100</v>
       </c>
       <c r="O42" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P42" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q42" s="3">
         <v>2.90806380875935</v>
@@ -2234,10 +2234,10 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P45" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q45" s="3">
         <v>2.6811147805323499</v>
@@ -2289,10 +2289,10 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P46" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q46" s="3">
         <v>2.9901750159146601</v>
@@ -2344,10 +2344,10 @@
         <v>100</v>
       </c>
       <c r="O47" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P47" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q47" s="3">
         <v>2.6170479744951298</v>
@@ -2449,10 +2449,10 @@
         <v>100</v>
       </c>
       <c r="O50" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P50" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q50" s="3">
         <v>2.9144824033958998</v>
@@ -2504,10 +2504,10 @@
         <v>100</v>
       </c>
       <c r="O51" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P51" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q51" s="3">
         <v>2.9668094970517198</v>
@@ -2559,10 +2559,10 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P52" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q52" s="3">
         <v>2.9785941376411702</v>
@@ -2664,10 +2664,10 @@
         <v>100</v>
       </c>
       <c r="O55" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P55" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q55" s="3">
         <v>2.76019730117457</v>
@@ -2719,10 +2719,10 @@
         <v>100</v>
       </c>
       <c r="O56" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P56" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q56" s="3">
         <v>3.1094981102267001</v>
@@ -2774,10 +2774,10 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P57" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q57" s="3">
         <v>3.1094981102267001</v>
@@ -2879,10 +2879,10 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P60" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q60" s="3">
         <v>2.7337807288948799</v>
@@ -2934,10 +2934,10 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P61" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q61" s="3">
         <v>2.9089404358339301</v>
@@ -2989,10 +2989,10 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>7.3086307158391706E-2</v>
+        <v>7.5544240567651202E-2</v>
       </c>
       <c r="P62" s="3">
-        <v>1.2302551087723899E-3</v>
+        <v>3.23689346225797E-3</v>
       </c>
       <c r="Q62" s="3">
         <v>2.4009185647196198</v>
@@ -3072,11 +3072,11 @@
       </c>
       <c r="O64" s="6">
         <f t="shared" si="1"/>
-        <v>7.3099999999999998E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="P64" s="6">
         <f t="shared" si="1"/>
-        <v>1.1999999999999999E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q64" s="6">
         <f t="shared" si="1"/>
@@ -3093,6 +3093,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="E2:I2"/>
@@ -3102,15 +3111,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3121,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
@@ -3148,21 +3148,21 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -3808,21 +3808,21 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7" t="s">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -4500,19 +4500,19 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
